--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zlhte\OneDrive\Desktop\wolfspeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E8662A-31B6-4C06-A6A7-96260F5B45BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D0DA3-3206-4BD0-8B4C-1773EA24AA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{1C8C2910-04C8-4AB1-A5CB-AA171D5BA177}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="15552" windowHeight="9072" activeTab="5" xr2:uid="{1C8C2910-04C8-4AB1-A5CB-AA171D5BA177}"/>
   </bookViews>
   <sheets>
     <sheet name="Retail" sheetId="1" r:id="rId1"/>
@@ -1565,7 +1565,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1577,7 +1577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1589,7 +1589,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1603,7 +1603,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1615,7 +1615,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1625,19 +1625,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB67210-ADEF-4306-A7B3-5970C3194A45}">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="18" max="18" width="160.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="49.44140625" customWidth="1"/>
-    <col min="21" max="21" width="68.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="150.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="160.5234375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="49.41796875" customWidth="1"/>
+    <col min="21" max="21" width="68.41796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="150.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="R2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="R5" s="10" t="s">
         <v>25</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="19" t="s">
@@ -1761,7 +1761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1782,13 +1782,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="N9" s="8"/>
       <c r="R9" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
@@ -1812,13 +1812,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="N11" s="8"/>
       <c r="R11" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1837,16 +1837,16 @@
       </c>
       <c r="T13" s="13"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="N14" s="8"/>
       <c r="R14" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:22" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1866,162 +1866,162 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="T28" s="20"/>
       <c r="U28" s="16"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="T29" s="20"/>
       <c r="U29" s="16"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="T30" s="20"/>
       <c r="U30" s="16"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="T31" s="20"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U32" s="14"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U33" s="14"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U34" s="14"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U36" s="3"/>
     </row>
-    <row r="37" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U39" s="13"/>
     </row>
-    <row r="40" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U40" s="13"/>
     </row>
-    <row r="44" spans="21:21" ht="18" x14ac:dyDescent="0.3">
+    <row r="44" spans="21:21" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="U44" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U46" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U49" s="13"/>
     </row>
-    <row r="50" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U50" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U51" s="13"/>
     </row>
-    <row r="52" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U52" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U54" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U57" s="13"/>
     </row>
-    <row r="58" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U58" s="13" t="s">
         <v>43</v>
       </c>
